--- a/eclipse-workspace/test-files/DateTime.xlsx
+++ b/eclipse-workspace/test-files/DateTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>name</t>
   </si>
@@ -36,10 +36,28 @@
     <t>Andy</t>
   </si>
   <si>
-    <t>longDate</t>
-  </si>
-  <si>
-    <t>orderTime</t>
+    <t>orderTimeStamp</t>
+  </si>
+  <si>
+    <t>orderInterval</t>
+  </si>
+  <si>
+    <t>orderDate</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
+    <t>Erin</t>
+  </si>
+  <si>
+    <t>Frank</t>
+  </si>
+  <si>
+    <t>Genuine</t>
+  </si>
+  <si>
+    <t>Henley</t>
   </si>
 </sst>
 </file>
@@ -47,7 +65,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]m/d/yy\ h:mm\ AM/PM;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -78,10 +96,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,19 +381,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -387,8 +407,11 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -401,8 +424,11 @@
       <c r="D2" s="2">
         <v>6.25E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" s="3">
+        <v>36535</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -415,8 +441,11 @@
       <c r="D3" s="2">
         <v>0.10416666666666667</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E3" s="3">
+        <v>40229</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -428,6 +457,94 @@
       </c>
       <c r="D4" s="2">
         <v>0.14583333333333334</v>
+      </c>
+      <c r="E4" s="3">
+        <v>43920</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
+        <v>36526.145833333336</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="E5" s="3">
+        <v>47848</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>2.2291666666666665</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.7708333333333335</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.77083333333333304</v>
+      </c>
+      <c r="E7" s="3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>58.770833333333336</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.8125</v>
+      </c>
+      <c r="E8" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="1">
+        <v>62.770833333333336</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0.85416666666666696</v>
+      </c>
+      <c r="E9" s="3">
+        <v>339</v>
       </c>
     </row>
   </sheetData>

--- a/eclipse-workspace/test-files/DateTime.xlsx
+++ b/eclipse-workspace/test-files/DateTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>name</t>
   </si>
@@ -58,6 +58,12 @@
   </si>
   <si>
     <t>Henley</t>
+  </si>
+  <si>
+    <t>Irene</t>
+  </si>
+  <si>
+    <t>3/3/1900  16:25:30 PM</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -504,7 +510,7 @@
         <v>10</v>
       </c>
       <c r="C7" s="1">
-        <v>3.7708333333333335</v>
+        <v>3.7709560185185187</v>
       </c>
       <c r="D7" s="2">
         <v>0.77083333333333304</v>
@@ -527,7 +533,7 @@
         <v>0.8125</v>
       </c>
       <c r="E8" s="3">
-        <v>338</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -544,10 +550,28 @@
         <v>0.85416666666666696</v>
       </c>
       <c r="E9" s="3">
-        <v>339</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.89583333333333404</v>
+      </c>
+      <c r="E10" s="3">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
--- a/eclipse-workspace/test-files/DateTime.xlsx
+++ b/eclipse-workspace/test-files/DateTime.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>name</t>
   </si>
@@ -61,9 +61,6 @@
   </si>
   <si>
     <t>Irene</t>
-  </si>
-  <si>
-    <t>3/3/1900  16:25:30 PM</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -515,9 +512,7 @@
       <c r="D7" s="2">
         <v>0.77083333333333304</v>
       </c>
-      <c r="E7" s="3">
-        <v>337</v>
-      </c>
+      <c r="E7" s="3"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -543,9 +538,7 @@
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="1">
-        <v>62.770833333333336</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="2">
         <v>0.85416666666666696</v>
       </c>
@@ -560,8 +553,8 @@
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>14</v>
+      <c r="C10" s="1">
+        <v>37714.236111111109</v>
       </c>
       <c r="D10" s="2">
         <v>0.89583333333333404</v>
